--- a/xlsx/超级大国_intext.xlsx
+++ b/xlsx/超级大国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="613">
   <si>
     <t>超级大国</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%86%E7%B4%8D%C2%B7%E9%9B%B7%E6%A0%B9</t>
   </si>
   <si>
-    <t>隆納·雷根</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_超级大国</t>
+    <t>隆纳·雷根</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_超级大国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%B7%B4%E5%A5%91%E5%A4%AB</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>國際社會</t>
+    <t>国际社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%8A%9B</t>
   </si>
   <si>
-    <t>國力</t>
+    <t>国力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%8A%9B%E9%87%8F</t>
   </si>
   <si>
-    <t>軍事力量</t>
+    <t>军事力量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E8%8B%B1%E8%AA%9E%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>牛津英語詞典</t>
+    <t>牛津英语词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AF%E8%AF%AD</t>
@@ -113,73 +113,67 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%BC%B7</t>
   </si>
   <si>
-    <t>列強</t>
+    <t>列强</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9C%8B</t>
   </si>
   <si>
-    <t>大國</t>
+    <t>大国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B</t>
   </si>
   <si>
-    <t>同盟國</t>
+    <t>同盟国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%B8%E5%BF%83%E5%9C%8B</t>
   </si>
   <si>
-    <t>軸心國</t>
+    <t>轴心国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%90%86%E6%9C%83</t>
   </si>
   <si>
-    <t>安理會</t>
+    <t>安理会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>常任理事國</t>
+    <t>常任理事国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>英聯邦</t>
+    <t>英联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -197,31 +191,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E6%B5%B7%E6%AC%8A</t>
   </si>
   <si>
-    <t>制海權</t>
+    <t>制海权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E5%A4%A7%E5%9C%8B</t>
   </si>
   <si>
-    <t>超級大國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>英國經濟</t>
+    <t>英国经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83</t>
@@ -233,19 +221,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A4%AA%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>亞太地區</t>
+    <t>亚太地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E9%A0%98</t>
   </si>
   <si>
-    <t>自治領</t>
+    <t>自治领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -275,13 +260,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%B2%E5%82%99%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>儲備貨幣</t>
+    <t>储备货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%8D%80%E5%9F%9F%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>聯合國區域集團</t>
+    <t>联合国区域集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -299,19 +284,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84</t>
   </si>
   <si>
-    <t>北約</t>
+    <t>北约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E6%B2%99%E6%9D%A1%E7%BA%A6</t>
@@ -323,15 +308,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%98</t>
   </si>
   <si>
-    <t>二战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
-    <t>欧洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
   </si>
   <si>
@@ -347,9 +326,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
   </si>
   <si>
-    <t>联合国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6</t>
   </si>
   <si>
@@ -371,9 +347,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
   </si>
   <si>
-    <t>冷战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -395,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E5%BC%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>超級強國</t>
+    <t>超级强国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8E%E8%B4%9D%E5%B0%94%C2%B7%E9%9F%A6%E5%BE%B7%E9%87%8C%E7%BA%B3</t>
@@ -407,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%C2%B7%E8%8F%B2%E5%88%A9%E6%99%AE%E6%96%AF%C2%B7%E4%BA%A8%E5%BB%B7%E9%A0%93</t>
   </si>
   <si>
-    <t>塞繆爾·菲利普斯·亨廷頓</t>
+    <t>塞缪尔·菲利普斯·亨廷顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
@@ -443,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>蒙古帝國</t>
+    <t>蒙古帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
@@ -461,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E5%9B%BD%E9%99%85%E6%B1%87%E7%8E%87)</t>
@@ -473,9 +446,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%A8%E5%A4%87%E8%B4%A7%E5%B8%81</t>
   </si>
   <si>
-    <t>储备货币</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%BE%BE</t>
   </si>
   <si>
@@ -491,19 +461,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E7%90%86</t>
   </si>
   <si>
-    <t>美國地理</t>
+    <t>美国地理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
@@ -599,25 +569,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9B%BD</t>
   </si>
   <si>
-    <t>大国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3</t>
   </si>
   <si>
-    <t>美國人口</t>
+    <t>美国人口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>人口結構</t>
+    <t>人口结构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E8%BE%BE%E5%9B%BD%E5%AE%B6</t>
@@ -635,13 +599,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國政治</t>
+    <t>美国政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%90%86%E4%BC%9A%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9B%BD</t>
@@ -653,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>否決權</t>
+    <t>否决权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -665,55 +629,55 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>美國經濟</t>
+    <t>美国经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>世界經濟</t>
+    <t>世界经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>跨國公司</t>
+    <t>跨国公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>金融機構</t>
+    <t>金融机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%90%E6%96%99%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>材料科學</t>
+    <t>材料科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>電子</t>
+    <t>电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>電信</t>
+    <t>电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>資訊科技</t>
+    <t>资讯科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA</t>
@@ -737,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>納米科技</t>
+    <t>纳米科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%A7%91%E6%8A%80</t>
@@ -749,25 +713,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學</t>
+    <t>医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算生物學</t>
+    <t>计算生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>化學工程</t>
+    <t>化学工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6</t>
   </si>
   <si>
-    <t>軟件</t>
+    <t>软件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
@@ -779,13 +743,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>國際貨幣基金</t>
+    <t>国际货币基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界銀行</t>
+    <t>世界银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -797,19 +761,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>太空飛機</t>
+    <t>太空飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%B3%B4%E6%81%A9</t>
   </si>
   <si>
-    <t>奧賴恩</t>
+    <t>奥赖恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83</t>
@@ -827,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%A4%AA%E7%A9%BA%E7%AB%99</t>
   </si>
   <si>
-    <t>國際太空站</t>
+    <t>国际太空站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E6%8E%A2%E6%B5%8B%E6%BC%AB%E6%B8%B8%E8%80%85</t>
@@ -839,19 +803,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國文化</t>
+    <t>美国文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>英語國家</t>
+    <t>英语国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E5%AF%A6%E5%8A%9B</t>
   </si>
   <si>
-    <t>軟實力</t>
+    <t>软实力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9C%E5%9C%A8%E8%B6%85%E7%BA%A7%E5%A4%A7%E5%9B%BD</t>
@@ -899,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>美帝國主義</t>
+    <t>美帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%9D%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
@@ -929,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E9%82%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>單邊主義</t>
+    <t>单边主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E9%98%B6%E6%AE%B5%E5%89%8A%E5%87%8F%E6%88%98%E7%95%A5%E6%AD%A6%E5%99%A8%E6%9D%A1%E7%BA%A6</t>
@@ -941,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%BD%88%E9%81%93%E9%A3%9B%E5%BD%88%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>反彈道飛彈條約</t>
+    <t>反弹道飞弹条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%B8%96%E7%95%8C</t>
@@ -953,31 +917,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%9B%9B%E5%A4%A7%E7%B6%93%E6%BF%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>歐洲四大經濟體</t>
+    <t>欧洲四大经济体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90%E4%BA%94%E5%9C%8B</t>
   </si>
   <si>
-    <t>北歐五國</t>
+    <t>北欧五国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -995,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -1007,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
@@ -1025,19 +989,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
@@ -1067,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
@@ -1097,19 +1061,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -1133,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1157,15 +1121,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6</t>
   </si>
   <si>
-    <t>英联邦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
   </si>
   <si>
@@ -1175,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -1187,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -1199,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -1211,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%83%E7%99%BC%E9%81%94%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>較發達國家</t>
+    <t>较发达国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
@@ -1229,19 +1190,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1253,7 +1214,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6%E6%88%96%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>已開發國家或地區</t>
+    <t>已开发国家或地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%9B%9B%E5%B0%8F%E9%BE%99</t>
@@ -1277,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8C%96%E5%9B%BD%E5%AE%B6</t>
@@ -1289,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%A4%A7%E5%B7%A5%E6%A5%AD%E5%9C%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>八大工業國組織</t>
+    <t>八大工业国组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
@@ -1307,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>西歐聯盟</t>
+    <t>西欧联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -1391,19 +1352,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A0%96%E5%9B%9B%E5%9B%BD</t>
@@ -1451,7 +1412,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -1463,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
@@ -1517,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -1541,19 +1502,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
   </si>
   <si>
-    <t>馬拉威</t>
+    <t>马拉威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -1643,13 +1604,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
@@ -1667,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
@@ -1679,7 +1640,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
@@ -1697,13 +1658,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美和普林西比</t>
+    <t>圣多美和普林西比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -1727,7 +1688,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9C%96</t>
   </si>
   <si>
-    <t>瓦努阿圖</t>
+    <t>瓦努阿图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%93%A6%E5%8D%A2</t>
@@ -1757,7 +1718,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%95%97%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>失敗國家</t>
+    <t>失败国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%86%E5%BC%B1%E5%9B%BD%E5%AE%B6%E6%8C%87%E6%95%B0</t>
@@ -1805,7 +1766,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>南方共同市場</t>
+    <t>南方共同市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
@@ -1853,7 +1814,7 @@
     <t>https://zh.wikipedia.org/wiki/20%E5%9C%8B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>20國集團</t>
+    <t>20国集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
@@ -1871,13 +1832,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0</t>
   </si>
   <si>
-    <t>人类发展指数</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E6%94%BF%E6%8D%AE%E7%82%B9</t>
@@ -1889,13 +1847,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E%E8%A1%9D%E7%AA%81%E8%AB%96</t>
   </si>
   <si>
-    <t>文明衝突論</t>
+    <t>文明冲突论</t>
   </si>
 </sst>
 </file>
@@ -2904,7 +2862,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
         <v>34</v>
@@ -2930,10 +2888,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>6</v>
@@ -2959,10 +2917,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -2988,10 +2946,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -3017,10 +2975,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="G27" t="n">
         <v>29</v>
@@ -3075,10 +3033,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -3104,10 +3062,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>6</v>
@@ -3133,10 +3091,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -3162,10 +3120,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -3191,10 +3149,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G33" t="n">
         <v>12</v>
@@ -3220,10 +3178,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>21</v>
@@ -3249,10 +3207,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="G35" t="n">
         <v>5</v>
@@ -3278,10 +3236,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
@@ -3307,10 +3265,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3336,10 +3294,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G38" t="n">
         <v>22</v>
@@ -3365,10 +3323,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3394,10 +3352,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -3423,10 +3381,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3452,10 +3410,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3481,10 +3439,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3510,10 +3468,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G44" t="n">
         <v>4</v>
@@ -3539,10 +3497,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -3568,10 +3526,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3597,10 +3555,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3626,10 +3584,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G48" t="n">
         <v>14</v>
@@ -3655,10 +3613,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
@@ -3684,10 +3642,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G50" t="n">
         <v>20</v>
@@ -3713,10 +3671,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G51" t="n">
         <v>17</v>
@@ -3742,10 +3700,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3771,10 +3729,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -3800,10 +3758,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3829,10 +3787,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="G55" t="n">
         <v>4</v>
@@ -3858,10 +3816,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G56" t="n">
         <v>5</v>
@@ -3887,10 +3845,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3916,10 +3874,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3945,10 +3903,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3974,10 +3932,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F60" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4003,10 +3961,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
@@ -4032,10 +3990,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G62" t="n">
         <v>5</v>
@@ -4061,10 +4019,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -4090,10 +4048,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4119,10 +4077,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4148,10 +4106,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4177,10 +4135,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4206,10 +4164,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4235,10 +4193,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4264,10 +4222,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4293,10 +4251,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4322,10 +4280,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4351,10 +4309,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4380,10 +4338,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4409,10 +4367,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4438,10 +4396,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4467,10 +4425,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4496,10 +4454,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4525,10 +4483,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4554,10 +4512,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4583,10 +4541,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4612,10 +4570,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4641,10 +4599,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4670,10 +4628,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4699,10 +4657,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -4728,10 +4686,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4757,10 +4715,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4786,10 +4744,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4815,10 +4773,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4844,10 +4802,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4873,10 +4831,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4902,10 +4860,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4931,10 +4889,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4960,10 +4918,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -4989,10 +4947,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5018,10 +4976,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5047,10 +5005,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G97" t="n">
         <v>7</v>
@@ -5076,10 +5034,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5105,10 +5063,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5134,10 +5092,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5163,10 +5121,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G101" t="n">
         <v>40</v>
@@ -5192,10 +5150,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="G102" t="n">
         <v>6</v>
@@ -5221,10 +5179,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="G103" t="n">
         <v>35</v>
@@ -5250,10 +5208,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -5279,10 +5237,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5308,10 +5266,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G106" t="n">
         <v>5</v>
@@ -5337,10 +5295,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5366,10 +5324,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5395,10 +5353,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5424,10 +5382,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5453,10 +5411,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5482,10 +5440,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5511,10 +5469,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5540,10 +5498,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5569,10 +5527,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G115" t="n">
         <v>5</v>
@@ -5598,10 +5556,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5627,10 +5585,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5656,10 +5614,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5685,10 +5643,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5714,10 +5672,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5743,10 +5701,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5772,10 +5730,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5801,10 +5759,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5830,10 +5788,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5859,10 +5817,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5888,10 +5846,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5917,10 +5875,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5946,10 +5904,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5975,10 +5933,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6004,10 +5962,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6033,10 +5991,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6062,10 +6020,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6091,10 +6049,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6120,10 +6078,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6149,10 +6107,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -6178,10 +6136,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6207,10 +6165,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6236,10 +6194,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6265,10 +6223,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -6294,10 +6252,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6323,10 +6281,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6352,10 +6310,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -6381,10 +6339,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6410,10 +6368,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6439,10 +6397,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6468,10 +6426,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6497,10 +6455,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F147" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6526,10 +6484,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6555,10 +6513,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F149" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -6584,10 +6542,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F150" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6613,10 +6571,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F151" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="G151" t="n">
         <v>10</v>
@@ -6642,10 +6600,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F152" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6671,10 +6629,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F153" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6700,10 +6658,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F154" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6729,10 +6687,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F155" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6758,10 +6716,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6787,10 +6745,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6816,10 +6774,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6845,10 +6803,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6874,10 +6832,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6903,10 +6861,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6932,10 +6890,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6961,10 +6919,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6990,10 +6948,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7019,13 +6977,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -7048,10 +7006,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F166" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7077,10 +7035,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="F167" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7106,10 +7064,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F168" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7135,10 +7093,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F169" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7164,10 +7122,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F170" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7193,10 +7151,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="F171" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7222,10 +7180,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F172" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7251,10 +7209,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7280,10 +7238,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7309,10 +7267,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7338,10 +7296,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7367,10 +7325,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7396,10 +7354,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7425,10 +7383,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7454,10 +7412,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7483,10 +7441,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7512,10 +7470,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7541,10 +7499,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7570,10 +7528,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7599,10 +7557,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7628,10 +7586,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7657,10 +7615,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7686,10 +7644,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7715,10 +7673,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7744,10 +7702,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7773,10 +7731,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7802,10 +7760,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7831,10 +7789,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7860,10 +7818,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7889,10 +7847,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F195" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7918,10 +7876,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7947,10 +7905,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7976,10 +7934,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8005,10 +7963,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8034,10 +7992,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F200" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8063,10 +8021,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F201" t="s">
-        <v>382</v>
+        <v>52</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
@@ -8092,10 +8050,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="F202" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8121,10 +8079,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F203" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8150,10 +8108,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F204" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8179,10 +8137,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F205" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8208,10 +8166,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F206" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8237,10 +8195,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -8266,10 +8224,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="F208" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8295,10 +8253,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="F209" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8324,10 +8282,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8353,10 +8311,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8382,10 +8340,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F212" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8411,10 +8369,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8440,10 +8398,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="F214" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8469,10 +8427,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="F215" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8498,10 +8456,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="F216" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8527,10 +8485,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="F217" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8556,10 +8514,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F218" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8585,10 +8543,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="F219" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8614,10 +8572,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="F220" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8643,10 +8601,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="F221" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8672,10 +8630,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="F222" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -8701,10 +8659,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="F223" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8730,10 +8688,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8759,10 +8717,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F225" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8788,10 +8746,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="F226" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8817,10 +8775,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F227" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8846,10 +8804,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F228" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8875,10 +8833,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="F229" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8904,13 +8862,13 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="F230" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -8933,10 +8891,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="F231" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -8962,10 +8920,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F232" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8991,10 +8949,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="F233" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9020,10 +8978,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="F234" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9049,10 +9007,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="F235" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9078,10 +9036,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="F236" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9107,10 +9065,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="F237" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9136,10 +9094,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="F238" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9165,10 +9123,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="F239" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9194,10 +9152,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="F240" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9223,10 +9181,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="F241" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9252,10 +9210,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="F242" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9281,10 +9239,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="F243" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9310,10 +9268,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="F244" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9339,10 +9297,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="F245" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9368,10 +9326,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="F246" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9397,10 +9355,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="F247" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9426,10 +9384,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="F248" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9455,10 +9413,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="F249" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9484,10 +9442,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="F250" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9513,10 +9471,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="F251" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9542,10 +9500,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="F252" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9571,10 +9529,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="F253" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9600,10 +9558,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="F254" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9629,10 +9587,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="F255" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9658,10 +9616,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F256" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9687,10 +9645,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="F257" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9716,10 +9674,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="F258" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9745,10 +9703,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="F259" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9774,13 +9732,13 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="F260" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -9803,10 +9761,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="F261" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9832,10 +9790,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="F262" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9861,10 +9819,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F263" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9890,10 +9848,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="F264" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9919,10 +9877,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="F265" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9948,10 +9906,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F266" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="G266" t="n">
         <v>3</v>
@@ -9977,10 +9935,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="F267" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10006,10 +9964,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F268" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10035,10 +9993,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="F269" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10064,10 +10022,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="F270" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10093,10 +10051,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="F271" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10122,10 +10080,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="F272" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10151,10 +10109,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="F273" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10180,10 +10138,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="F274" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10209,10 +10167,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="F275" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10238,10 +10196,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="F276" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10267,10 +10225,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10296,10 +10254,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="F278" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10325,10 +10283,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="F279" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10354,10 +10312,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="F280" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10383,10 +10341,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="F281" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10412,10 +10370,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10441,10 +10399,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10470,10 +10428,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10499,10 +10457,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10528,10 +10486,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10557,10 +10515,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10586,10 +10544,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10615,10 +10573,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10644,10 +10602,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10673,10 +10631,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10702,10 +10660,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10731,10 +10689,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10760,10 +10718,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10789,10 +10747,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10818,10 +10776,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10847,10 +10805,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="F297" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10876,10 +10834,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="F298" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10905,10 +10863,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10934,10 +10892,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="F300" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10963,10 +10921,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="F301" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10992,10 +10950,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="F302" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11021,10 +10979,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="F303" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11050,10 +11008,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="F304" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11079,10 +11037,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="F305" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11108,10 +11066,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="F306" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11137,10 +11095,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F307" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11166,10 +11124,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="F308" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11195,10 +11153,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="F309" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11224,10 +11182,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="F310" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11253,10 +11211,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="F311" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11282,10 +11240,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="F312" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11311,10 +11269,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="F313" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11340,10 +11298,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="F314" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11369,10 +11327,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="F315" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11398,10 +11356,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="F316" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11427,10 +11385,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="F317" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11456,10 +11414,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="F318" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11485,10 +11443,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="F319" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11514,10 +11472,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="F320" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11543,10 +11501,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="F321" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11572,10 +11530,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="F322" t="s">
-        <v>618</v>
+        <v>194</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11601,10 +11559,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="F323" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11630,10 +11588,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="F324" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11659,10 +11617,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="F325" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11688,10 +11646,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="F326" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11717,10 +11675,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="F327" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
